--- a/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>富兰克林国海恒利债券（LOF）C</t>
   </si>
   <si>
+    <t>5.47</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
     <t>94.79</t>
   </si>
   <si>
     <t>7.55</t>
+  </si>
+  <si>
+    <t>0.4130</t>
+  </si>
+  <si>
+    <t>0.0023</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>164403</t>
-  </si>
-  <si>
-    <t>164510</t>
-  </si>
-  <si>
-    <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-  </si>
-  <si>
-    <t>富兰克林国海恒利债券（LOF）C</t>
-  </si>
-  <si>
-    <t>5.47</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>94.79</t>
-  </si>
-  <si>
-    <t>7.55</t>
-  </si>
-  <si>
-    <t>0.4130</t>
-  </si>
-  <si>
-    <t>0.0023</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164510</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海恒利债券（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6666</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7841</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4742</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
@@ -1169,12 +1169,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1153,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,17 +1165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.77</v>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1200,14 +1243,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.2</v>
       </c>
     </row>
     <row r="4">
@@ -1216,13 +1281,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4130</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164510</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富兰克林国海恒利债券（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -637,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002446</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合A</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.30</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.83</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7153</t>
+          <t>0.3610</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>015210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>前海开源沪港深农业混合（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6666</t>
+          <t>0.3610</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -713,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>010418</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>财通景气行业一年封闭运作混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.50</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4254</t>
+          <t>0.2332</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -751,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>501015</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>财通多策略升级混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>97.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1597</t>
+          <t>0.1787</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -789,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160921</t>
+          <t>005851</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成多策略混合(LOF)</t>
+          <t>财通新视野灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1332</t>
+          <t>0.0479</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -827,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002319</t>
+          <t>015271</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成一带一路灵活配置混合</t>
+          <t>财通多策略升级混合（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.38</t>
+          <t>97.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0503</t>
+          <t>0.0476</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -865,36 +833,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011172</t>
+          <t>005959</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合C</t>
+          <t>财通新视野灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>64.83</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0455</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,7 +1181,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1205,36 +1211,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>002446</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>广发利鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>23.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>64.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3610</t>
+          <t>0.7153</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1243,36 +1249,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>015210</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业混合（LOF）C</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3610</t>
+          <t>0.6666</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1281,36 +1287,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010418</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通景气行业一年封闭运作混合</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>87.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2332</t>
+          <t>0.4254</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1319,36 +1325,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501015</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.12</t>
+          <t>89.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1787</t>
+          <t>0.1597</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1357,36 +1363,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005851</t>
+          <t>160921</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合A</t>
+          <t>大成多策略混合(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>79.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0479</t>
+          <t>0.1332</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1395,36 +1401,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>015271</t>
+          <t>002319</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）C</t>
+          <t>大成一带一路灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.12</t>
+          <t>85.38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0476</t>
+          <t>0.0503</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1433,74 +1439,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005959</t>
+          <t>011172</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合C</t>
+          <t>广发利鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>64.83</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.0454</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通多策略精选混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0387</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1514,96 +1482,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.31</v>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.42</v>
+          <t>164510</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海恒利债券（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>1.31</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.77</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -549,6 +566,1010 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015201</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015200</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016234</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -908,7 +1929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1154,7 +2175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1476,7 +2497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300871-回盛生物.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>3.54</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>1.31</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.77</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -566,6 +583,516 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016234</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1569,7 +2096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1929,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2175,7 +2702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2497,7 +3024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
